--- a/utilizadoresBulk.xlsx
+++ b/utilizadoresBulk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f945419a16710a90/Documentos/GitHub/Pint21-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C0EBECC5-E325-4124-88B0-184EDCDD2C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED160851-A3D3-4E75-8ECC-BA5A377D6937}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{C0EBECC5-E325-4124-88B0-184EDCDD2C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A297240C-24AB-4568-A8F3-496F5F79D0CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D91CBB16-FF8E-4C6C-92D7-CB864C65AB5A}"/>
   </bookViews>
@@ -53,100 +53,100 @@
     <t>Data Nascimento</t>
   </si>
   <si>
-    <t>bulkuser1</t>
-  </si>
-  <si>
-    <t>bulkuser2</t>
-  </si>
-  <si>
-    <t>bulkuser3</t>
-  </si>
-  <si>
-    <t>bulkuser4</t>
-  </si>
-  <si>
-    <t>bulkuser5</t>
-  </si>
-  <si>
-    <t>bulkuser6</t>
-  </si>
-  <si>
-    <t>bulkuser7</t>
-  </si>
-  <si>
-    <t>bulkuser8</t>
-  </si>
-  <si>
-    <t>bulkuser9</t>
-  </si>
-  <si>
-    <t>bulkuser10</t>
-  </si>
-  <si>
-    <t>Bulk User 1</t>
-  </si>
-  <si>
-    <t>Bulk User 2</t>
-  </si>
-  <si>
-    <t>Bulk User 3</t>
-  </si>
-  <si>
-    <t>Bulk User 4</t>
-  </si>
-  <si>
-    <t>Bulk User 5</t>
-  </si>
-  <si>
-    <t>Bulk User 6</t>
-  </si>
-  <si>
-    <t>Bulk User 7</t>
-  </si>
-  <si>
-    <t>Bulk User 8</t>
-  </si>
-  <si>
-    <t>Bulk User 9</t>
-  </si>
-  <si>
-    <t>Bulk User 10</t>
-  </si>
-  <si>
-    <t>bulkuser1@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser2@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser3@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser4@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser5@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser6@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser7@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser8@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser9@gmail.com</t>
-  </si>
-  <si>
-    <t>bulkuser10@gmail.com</t>
-  </si>
-  <si>
     <t>Passw0rd</t>
   </si>
   <si>
     <t>Tipo Utilizador</t>
+  </si>
+  <si>
+    <t>Bulk User 31</t>
+  </si>
+  <si>
+    <t>Bulk User 51</t>
+  </si>
+  <si>
+    <t>Bulk User 91</t>
+  </si>
+  <si>
+    <t>Bulk User 71</t>
+  </si>
+  <si>
+    <t>Bulk User 22</t>
+  </si>
+  <si>
+    <t>Bulk User 42</t>
+  </si>
+  <si>
+    <t>Bulk User 62</t>
+  </si>
+  <si>
+    <t>Bulk User 82</t>
+  </si>
+  <si>
+    <t>Bulk User 102</t>
+  </si>
+  <si>
+    <t>Bulk User 12</t>
+  </si>
+  <si>
+    <t>testebulkuser1</t>
+  </si>
+  <si>
+    <t>testebulkuser2</t>
+  </si>
+  <si>
+    <t>testebulkuser3</t>
+  </si>
+  <si>
+    <t>testebulkuser4</t>
+  </si>
+  <si>
+    <t>testebulkuser5</t>
+  </si>
+  <si>
+    <t>testebulkuser6</t>
+  </si>
+  <si>
+    <t>testebulkuser7</t>
+  </si>
+  <si>
+    <t>testebulkuser8</t>
+  </si>
+  <si>
+    <t>testebulkuser9</t>
+  </si>
+  <si>
+    <t>testebulkuser10</t>
+  </si>
+  <si>
+    <t>testebulkuser1@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser2@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser3@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser4@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser5@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser6@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser7@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser8@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser9@gmail.com</t>
+  </si>
+  <si>
+    <t>testebulkuser10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,21 +549,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>35935</v>
@@ -574,16 +574,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>35936</v>
@@ -594,16 +594,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>35937</v>
@@ -614,16 +614,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>35938</v>
@@ -634,16 +634,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>35939</v>
@@ -654,16 +654,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>35940</v>
@@ -674,16 +674,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>35941</v>
@@ -694,16 +694,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>35942</v>
@@ -714,16 +714,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>35943</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
         <v>35944</v>

--- a/utilizadoresBulk.xlsx
+++ b/utilizadoresBulk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f945419a16710a90/Documentos/GitHub/Pint21-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{C0EBECC5-E325-4124-88B0-184EDCDD2C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A297240C-24AB-4568-A8F3-496F5F79D0CA}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{C0EBECC5-E325-4124-88B0-184EDCDD2C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820A7610-93EB-44AA-923A-D1BC5A43C887}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D91CBB16-FF8E-4C6C-92D7-CB864C65AB5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nome Utilizador</t>
   </si>
@@ -59,94 +59,13 @@
     <t>Tipo Utilizador</t>
   </si>
   <si>
-    <t>Bulk User 31</t>
-  </si>
-  <si>
-    <t>Bulk User 51</t>
-  </si>
-  <si>
-    <t>Bulk User 91</t>
-  </si>
-  <si>
-    <t>Bulk User 71</t>
-  </si>
-  <si>
-    <t>Bulk User 22</t>
-  </si>
-  <si>
-    <t>Bulk User 42</t>
-  </si>
-  <si>
-    <t>Bulk User 62</t>
-  </si>
-  <si>
-    <t>Bulk User 82</t>
-  </si>
-  <si>
-    <t>Bulk User 102</t>
-  </si>
-  <si>
-    <t>Bulk User 12</t>
-  </si>
-  <si>
-    <t>testebulkuser1</t>
-  </si>
-  <si>
-    <t>testebulkuser2</t>
-  </si>
-  <si>
-    <t>testebulkuser3</t>
-  </si>
-  <si>
-    <t>testebulkuser4</t>
-  </si>
-  <si>
-    <t>testebulkuser5</t>
-  </si>
-  <si>
-    <t>testebulkuser6</t>
-  </si>
-  <si>
-    <t>testebulkuser7</t>
-  </si>
-  <si>
-    <t>testebulkuser8</t>
-  </si>
-  <si>
-    <t>testebulkuser9</t>
-  </si>
-  <si>
-    <t>testebulkuser10</t>
-  </si>
-  <si>
-    <t>testebulkuser1@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser2@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser3@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser4@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser5@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser6@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser7@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser8@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser9@gmail.com</t>
-  </si>
-  <si>
-    <t>testebulkuser10@gmail.com</t>
+    <t>testebulkuser17</t>
+  </si>
+  <si>
+    <t>Bulk User 17</t>
+  </si>
+  <si>
+    <t>testebulkuser17@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -519,14 +438,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
@@ -554,13 +473,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -573,198 +492,45 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>35936</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>35937</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>35938</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>35939</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>35940</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>35941</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>35942</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>35943</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>35944</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3B0A8D1C-44DA-42FF-9408-A193822BCC5F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{99596B80-D3E3-45F9-BBBC-FAC8F5DFC78E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{92B5BB28-68D8-406D-975E-D6EEAF351D16}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{46135910-872A-4C6B-89E8-4F46C0BE5037}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{CE22C782-425C-47CA-BB8C-15EB2F4E18F4}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{A5240EBA-BB73-4795-933F-B0D72E6B4B68}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{8F800B7F-69B4-4A9B-A4E0-D8AE6CF31DE4}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{3A7CFE82-BA7D-4354-811D-D45E5522072C}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{75CE24D3-989A-471D-8F01-F527178A81BC}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{77B187DC-8E6D-4ADB-924F-F43D97BB7322}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
